--- a/nodes_source_analyses/energy/energy_hydrogen_wind_turbine_offshore.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_hydrogen_wind_turbine_offshore.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851525D6-B12B-1A4D-8159-ADD64FA18B43}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4ADC28-6344-7C49-A3EE-B8548E61218E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="7220" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="177">
   <si>
     <t>Source</t>
   </si>
@@ -649,6 +655,9 @@
   </si>
   <si>
     <t>Copied from energy_power_wind_turbine_offshore</t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1373,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1610,6 +1619,7 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="250">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2809,12 +2819,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="27" customFormat="1">
@@ -2988,23 +2998,23 @@
   </sheetPr>
   <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="35" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="2.5" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3476,15 +3486,15 @@
         <v>2</v>
       </c>
       <c r="E29" s="41">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39" t="s">
         <v>26</v>
       </c>
       <c r="H29" s="39"/>
-      <c r="I29" s="131" t="s">
-        <v>175</v>
+      <c r="I29" s="141" t="s">
+        <v>176</v>
       </c>
       <c r="J29" s="79"/>
     </row>
@@ -3742,30 +3752,30 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="87" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="87" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="87" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="87" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="87" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="87" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="87" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="87" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="87" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="87" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="87" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="87" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="87" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="87" customWidth="1"/>
     <col min="8" max="8" width="3" style="87" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="87" customWidth="1"/>
-    <col min="10" max="10" width="2.5" style="87" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" style="87" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="87" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="87" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="87" customWidth="1"/>
     <col min="12" max="12" width="2" style="87" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" style="87" customWidth="1"/>
-    <col min="14" max="14" width="2.5" style="87" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="87" customWidth="1"/>
-    <col min="16" max="16" width="3.5" style="87" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="87" customWidth="1"/>
-    <col min="18" max="18" width="2.83203125" style="87" customWidth="1"/>
-    <col min="19" max="19" width="9.83203125" style="87" customWidth="1"/>
-    <col min="20" max="20" width="2.83203125" style="87" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="87" customWidth="1"/>
+    <col min="14" max="14" width="2.42578125" style="87" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="87" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" style="87" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="87" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" style="87" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="87" customWidth="1"/>
+    <col min="20" max="20" width="2.85546875" style="87" customWidth="1"/>
     <col min="21" max="21" width="58" style="87" customWidth="1"/>
-    <col min="22" max="16384" width="10.6640625" style="87"/>
+    <col min="22" max="16384" width="10.7109375" style="87"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1"/>
@@ -3962,7 +3972,7 @@
       </c>
       <c r="U10" s="100"/>
     </row>
-    <row r="11" spans="2:21" ht="17" thickBot="1">
+    <row r="11" spans="2:21" ht="18" thickBot="1">
       <c r="B11" s="93"/>
       <c r="C11" s="89" t="s">
         <v>5</v>
@@ -3997,7 +4007,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="17" thickBot="1">
+    <row r="12" spans="2:21" ht="18" thickBot="1">
       <c r="B12" s="93"/>
       <c r="C12" s="107" t="s">
         <v>86</v>
@@ -4310,18 +4320,18 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="52" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="52" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="52" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="52" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="52" customWidth="1"/>
-    <col min="6" max="7" width="13.33203125" style="52" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="72" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="52" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="52" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="52" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="52" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="52" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="72" customWidth="1"/>
     <col min="9" max="9" width="33" style="72" customWidth="1"/>
-    <col min="10" max="10" width="103.5" style="52" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="52"/>
+    <col min="10" max="10" width="103.42578125" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -4723,11 +4733,11 @@
       <selection activeCell="J172" sqref="J172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="87" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="87" customWidth="1"/>
-    <col min="3" max="16384" width="10.6640625" style="87"/>
+    <col min="1" max="1" width="5.42578125" style="87" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="87" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="87"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1"/>
